--- a/SimulationStudyData/Model5/SimCase29_Zsim_SimRun4.xlsx
+++ b/SimulationStudyData/Model5/SimCase29_Zsim_SimRun4.xlsx
@@ -439,34 +439,34 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -503,54 +503,54 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
@@ -567,34 +567,34 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -634,89 +634,89 @@
         <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
@@ -754,12 +754,12 @@
         <v>2</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
@@ -815,10 +815,10 @@
         <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -870,19 +870,19 @@
         <v>2</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -925,7 +925,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
@@ -951,98 +951,98 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -1068,7 +1068,7 @@
         <v>2</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>2</v>
@@ -1079,13 +1079,13 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
@@ -1132,13 +1132,13 @@
         <v>2</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1175,34 +1175,34 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -1254,19 +1254,19 @@
         <v>2</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -1303,60 +1303,60 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>1</v>
@@ -1399,22 +1399,22 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1463,48 +1463,48 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E36" t="n">
         <v>1</v>
@@ -1527,34 +1527,34 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1623,22 +1623,22 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -1655,16 +1655,16 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E41" t="n">
         <v>1</v>
@@ -1725,60 +1725,60 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1815,34 +1815,34 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
@@ -1865,7 +1865,7 @@
         <v>2</v>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H47" t="n">
         <v>2</v>
@@ -1879,19 +1879,19 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F48" t="n">
         <v>1</v>
@@ -2080,25 +2080,25 @@
         <v>2</v>
       </c>
       <c r="D54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
@@ -2115,22 +2115,22 @@
         <v>2</v>
       </c>
       <c r="E55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
@@ -2217,16 +2217,16 @@
         <v>2</v>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
@@ -2263,34 +2263,34 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
@@ -2310,19 +2310,19 @@
         <v>2</v>
       </c>
       <c r="F61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2342,19 +2342,19 @@
         <v>2</v>
       </c>
       <c r="F62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2377,10 +2377,10 @@
         <v>2</v>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I63" t="n">
         <v>1</v>
@@ -2409,7 +2409,7 @@
         <v>2</v>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H64" t="n">
         <v>1</v>
@@ -2502,39 +2502,39 @@
         <v>2</v>
       </c>
       <c r="F67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -2551,7 +2551,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B69" t="n">
         <v>1</v>
@@ -2583,34 +2583,34 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2662,7 +2662,7 @@
         <v>2</v>
       </c>
       <c r="F72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G72" t="n">
         <v>2</v>
@@ -2674,44 +2674,44 @@
         <v>2</v>
       </c>
       <c r="J72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B74" t="n">
         <v>1</v>
@@ -2764,18 +2764,18 @@
         <v>2</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B76" t="n">
         <v>1</v>
@@ -2807,13 +2807,13 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>2</v>
@@ -2839,98 +2839,98 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2956,13 +2956,13 @@
         <v>2</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
@@ -3023,10 +3023,10 @@
         <v>2</v>
       </c>
       <c r="I83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -3037,28 +3037,28 @@
         <v>2</v>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3081,10 +3081,10 @@
         <v>2</v>
       </c>
       <c r="G85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>1</v>
@@ -3186,7 +3186,7 @@
         <v>2</v>
       </c>
       <c r="J88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -3209,16 +3209,16 @@
         <v>2</v>
       </c>
       <c r="G89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -3232,25 +3232,25 @@
         <v>2</v>
       </c>
       <c r="D90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3287,25 +3287,25 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H92" t="n">
         <v>1</v>
@@ -3337,16 +3337,16 @@
         <v>2</v>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94">
@@ -3360,57 +3360,57 @@
         <v>2</v>
       </c>
       <c r="D94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3447,22 +3447,22 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -3482,31 +3482,31 @@
         <v>2</v>
       </c>
       <c r="B98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -3517,28 +3517,28 @@
         <v>2</v>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3575,10 +3575,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C101" t="n">
         <v>1</v>
@@ -3648,25 +3648,25 @@
         <v>1</v>
       </c>
       <c r="D103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104">
@@ -3686,16 +3686,16 @@
         <v>2</v>
       </c>
       <c r="F104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J104" t="n">
         <v>1</v>
@@ -3721,16 +3721,16 @@
         <v>2</v>
       </c>
       <c r="G105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -3738,31 +3738,31 @@
         <v>2</v>
       </c>
       <c r="B106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -3799,16 +3799,16 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E108" t="n">
         <v>1</v>
@@ -3863,34 +3863,34 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111">
@@ -3927,31 +3927,31 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J112" t="n">
         <v>1</v>
@@ -3983,10 +3983,10 @@
         <v>2</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114">
@@ -4006,94 +4006,94 @@
         <v>2</v>
       </c>
       <c r="F114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D117" t="n">
         <v>1</v>
@@ -4119,42 +4119,42 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C119" t="n">
         <v>1</v>
@@ -4183,13 +4183,13 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D120" t="n">
         <v>1</v>
@@ -4215,28 +4215,28 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I121" t="n">
         <v>1</v>
@@ -4343,13 +4343,13 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D125" t="n">
         <v>1</v>
@@ -4375,7 +4375,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B126" t="n">
         <v>1</v>
@@ -4407,34 +4407,34 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -4503,34 +4503,34 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -4617,39 +4617,39 @@
         <v>2</v>
       </c>
       <c r="G133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H134" t="n">
         <v>1</v>
@@ -4727,34 +4727,34 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138">
@@ -4768,25 +4768,25 @@
         <v>2</v>
       </c>
       <c r="D138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139">
@@ -4855,31 +4855,31 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J141" t="n">
         <v>2</v>
@@ -4887,34 +4887,34 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -4943,21 +4943,21 @@
         <v>2</v>
       </c>
       <c r="I143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D144" t="n">
         <v>1</v>
@@ -4986,31 +4986,31 @@
         <v>2</v>
       </c>
       <c r="B145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146">
@@ -5059,27 +5059,27 @@
         <v>2</v>
       </c>
       <c r="E147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B148" t="n">
         <v>1</v>
@@ -5111,34 +5111,34 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
@@ -5146,13 +5146,13 @@
         <v>2</v>
       </c>
       <c r="B150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E150" t="n">
         <v>1</v>
@@ -5213,28 +5213,28 @@
         <v>2</v>
       </c>
       <c r="C152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153">
@@ -5292,10 +5292,10 @@
         <v>2</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J154" t="n">
         <v>2</v>
@@ -5306,31 +5306,31 @@
         <v>2</v>
       </c>
       <c r="B155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156">
@@ -5341,13 +5341,13 @@
         <v>2</v>
       </c>
       <c r="C156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F156" t="n">
         <v>1</v>
@@ -5367,7 +5367,7 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B157" t="n">
         <v>1</v>
@@ -5399,34 +5399,34 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -5437,33 +5437,33 @@
         <v>2</v>
       </c>
       <c r="C159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B160" t="n">
         <v>1</v>
@@ -5495,10 +5495,10 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C161" t="n">
         <v>1</v>
@@ -5565,28 +5565,28 @@
         <v>2</v>
       </c>
       <c r="C163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -5603,19 +5603,19 @@
         <v>2</v>
       </c>
       <c r="E164" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G164" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I164" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J164" t="n">
         <v>1</v>
@@ -5629,28 +5629,28 @@
         <v>2</v>
       </c>
       <c r="C165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -5690,48 +5690,48 @@
         <v>2</v>
       </c>
       <c r="B167" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C167" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D167" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E167" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G167" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I167" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J167" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F168" t="n">
         <v>1</v>
@@ -5751,25 +5751,25 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H169" t="n">
         <v>1</v>
@@ -5778,7 +5778,7 @@
         <v>1</v>
       </c>
       <c r="J169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170">
@@ -5792,57 +5792,57 @@
         <v>2</v>
       </c>
       <c r="D170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B171" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C171" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D171" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E171" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F171" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G171" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I171" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J171" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172">
@@ -5865,48 +5865,48 @@
         <v>2</v>
       </c>
       <c r="G172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174">
@@ -5943,34 +5943,34 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B175" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C175" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D175" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E175" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F175" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G175" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I175" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J175" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176">
@@ -5984,57 +5984,57 @@
         <v>2</v>
       </c>
       <c r="D176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -6057,16 +6057,16 @@
         <v>2</v>
       </c>
       <c r="G178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179">
@@ -6141,28 +6141,28 @@
         <v>2</v>
       </c>
       <c r="C181" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D181" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E181" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G181" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I181" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J181" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -6205,13 +6205,13 @@
         <v>2</v>
       </c>
       <c r="C183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F183" t="n">
         <v>1</v>
@@ -6231,19 +6231,19 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F184" t="n">
         <v>1</v>
@@ -6269,65 +6269,65 @@
         <v>2</v>
       </c>
       <c r="C185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B187" t="n">
         <v>1</v>
@@ -6391,19 +6391,19 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B189" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C189" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D189" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E189" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F189" t="n">
         <v>1</v>
@@ -6423,66 +6423,66 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B191" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C191" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D191" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E191" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F191" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G191" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I191" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J191" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192">
@@ -6496,36 +6496,36 @@
         <v>2</v>
       </c>
       <c r="D192" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E192" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F192" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G192" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I192" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J192" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B193" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C193" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D193" t="n">
         <v>1</v>
@@ -6563,13 +6563,13 @@
         <v>2</v>
       </c>
       <c r="E194" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F194" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G194" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H194" t="n">
         <v>1</v>
@@ -6607,10 +6607,10 @@
         <v>2</v>
       </c>
       <c r="I195" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J195" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196">
@@ -6668,36 +6668,36 @@
         <v>2</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B198" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C198" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D198" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E198" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F198" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G198" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H198" t="n">
         <v>1</v>
@@ -6743,34 +6743,34 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B200" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C200" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D200" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E200" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F200" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G200" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I200" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J200" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201">
@@ -6796,13 +6796,13 @@
         <v>2</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I201" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J201" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
